--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-12_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-12_beg.xlsx
@@ -576,7 +576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Don’t worry about her. The exit’s right there!;Amiya…;What’s the point of you doing this, W?", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Don't worry about her. The exit's right there!;Amiya...;What's the point of you doing this, W?", values="1;2;3")]
 </t>
   </si>
   <si>
